--- a/Code/Results/Cases/Case_1_194/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_194/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.61432660742273</v>
+        <v>16.40548401124649</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.739099334433959</v>
+        <v>9.538705566555747</v>
       </c>
       <c r="E2">
-        <v>10.32297596696129</v>
+        <v>16.55699451043912</v>
       </c>
       <c r="F2">
-        <v>26.14693369764186</v>
+        <v>39.03928311656505</v>
       </c>
       <c r="G2">
-        <v>2.123550029214063</v>
+        <v>3.693558962500307</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.778247364740487</v>
+        <v>12.27419186508692</v>
       </c>
       <c r="K2">
-        <v>12.68189806552731</v>
+        <v>8.630920874445264</v>
       </c>
       <c r="L2">
-        <v>5.603237424194149</v>
+        <v>8.569136173283496</v>
       </c>
       <c r="M2">
-        <v>9.785189389636342</v>
+        <v>15.30107565736081</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.31586375213367</v>
+        <v>29.39577894818369</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.0637792968529</v>
+        <v>16.32726379764847</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.700697305691714</v>
+        <v>9.548868416054141</v>
       </c>
       <c r="E3">
-        <v>10.41514725051986</v>
+        <v>16.5954759316503</v>
       </c>
       <c r="F3">
-        <v>26.08872767690061</v>
+        <v>39.13684199616634</v>
       </c>
       <c r="G3">
-        <v>2.128616200051477</v>
+        <v>3.695488555372158</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.841242805329253</v>
+        <v>12.29555224733683</v>
       </c>
       <c r="K3">
-        <v>12.03907863976045</v>
+        <v>8.393629060912421</v>
       </c>
       <c r="L3">
-        <v>5.330284062069496</v>
+        <v>8.544984415231752</v>
       </c>
       <c r="M3">
-        <v>9.498334369426132</v>
+        <v>15.27920299330132</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.34467845856705</v>
+        <v>29.47883508144989</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.71778102327016</v>
+        <v>16.28185121235945</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.678935324663749</v>
+        <v>9.55610785182664</v>
       </c>
       <c r="E4">
-        <v>10.47435113966275</v>
+        <v>16.62050056544015</v>
       </c>
       <c r="F4">
-        <v>26.07154904472551</v>
+        <v>39.20414676674118</v>
       </c>
       <c r="G4">
-        <v>2.131827307987959</v>
+        <v>3.696737030991849</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.881113223614982</v>
+        <v>12.30935206768452</v>
       </c>
       <c r="K4">
-        <v>11.62599571247842</v>
+        <v>8.245556643442365</v>
       </c>
       <c r="L4">
-        <v>5.178819014592898</v>
+        <v>8.53101383804292</v>
       </c>
       <c r="M4">
-        <v>9.32104441208817</v>
+        <v>15.26762074355413</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.37582776446189</v>
+        <v>29.53509894568174</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.57498398298146</v>
+        <v>16.26401737635405</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.670524567699141</v>
+        <v>9.559309793725266</v>
       </c>
       <c r="E5">
-        <v>10.49913408620718</v>
+        <v>16.63105041385833</v>
       </c>
       <c r="F5">
-        <v>26.06908039300161</v>
+        <v>39.23343346072058</v>
       </c>
       <c r="G5">
-        <v>2.133161655305261</v>
+        <v>3.697261862088848</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.89766554880613</v>
+        <v>12.31514822368516</v>
       </c>
       <c r="K5">
-        <v>11.45312885820732</v>
+        <v>8.184708494572369</v>
       </c>
       <c r="L5">
-        <v>5.1235892343317</v>
+        <v>8.525540121431874</v>
       </c>
       <c r="M5">
-        <v>9.248604920196687</v>
+        <v>15.26336917818731</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.39178999255839</v>
+        <v>29.55935005049983</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.55117034426534</v>
+        <v>16.26109708896054</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.669155598736356</v>
+        <v>9.55985669697516</v>
       </c>
       <c r="E6">
-        <v>10.50328896728927</v>
+        <v>16.63282349955329</v>
       </c>
       <c r="F6">
-        <v>26.06894015727857</v>
+        <v>39.23840873355869</v>
       </c>
       <c r="G6">
-        <v>2.133384795805422</v>
+        <v>3.697349981775309</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.900432611749351</v>
+        <v>12.31612111146977</v>
       </c>
       <c r="K6">
-        <v>11.42415381517935</v>
+        <v>8.174576781383124</v>
       </c>
       <c r="L6">
-        <v>5.114379439933167</v>
+        <v>8.524644565130254</v>
       </c>
       <c r="M6">
-        <v>9.23656779421572</v>
+        <v>15.26269159597868</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.39463457250088</v>
+        <v>29.56345680121444</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.71586221437656</v>
+        <v>16.28160795877099</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.678820041895842</v>
+        <v>9.556150014092589</v>
       </c>
       <c r="E7">
-        <v>10.47468271065892</v>
+        <v>16.62064141758126</v>
       </c>
       <c r="F7">
-        <v>26.071497584011</v>
+        <v>39.20453421148775</v>
       </c>
       <c r="G7">
-        <v>2.131845198329439</v>
+        <v>3.696744043926145</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.881335212985807</v>
+        <v>12.30942953707947</v>
       </c>
       <c r="K7">
-        <v>11.62368258361114</v>
+        <v>8.24473795627735</v>
       </c>
       <c r="L7">
-        <v>5.178076828507883</v>
+        <v>8.530939124737635</v>
       </c>
       <c r="M7">
-        <v>9.320068111215821</v>
+        <v>15.26756150465092</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.37602995369661</v>
+        <v>29.53542064910711</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.42626284744365</v>
+        <v>16.3779799633948</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.725481674856831</v>
+        <v>9.542002598760787</v>
       </c>
       <c r="E8">
-        <v>10.35421509548341</v>
+        <v>16.56997349220892</v>
       </c>
       <c r="F8">
-        <v>26.12293188357165</v>
+        <v>39.07138364769477</v>
       </c>
       <c r="G8">
-        <v>2.125276323277033</v>
+        <v>3.694211095676202</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.799724280847646</v>
+        <v>12.28141516965749</v>
       </c>
       <c r="K8">
-        <v>12.46411942731203</v>
+        <v>8.549647499752428</v>
       </c>
       <c r="L8">
-        <v>5.510694887471198</v>
+        <v>8.560632556610873</v>
       </c>
       <c r="M8">
-        <v>9.686580108525165</v>
+        <v>15.29315276082404</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.32293652781875</v>
+        <v>29.42332275263377</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.74866438421631</v>
+        <v>16.58703544049263</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.831357299196898</v>
+        <v>9.522166898356312</v>
       </c>
       <c r="E9">
-        <v>10.13867485396086</v>
+        <v>16.48165893117539</v>
       </c>
       <c r="F9">
-        <v>26.37690950095574</v>
+        <v>38.86910652957289</v>
       </c>
       <c r="G9">
-        <v>2.113166484542042</v>
+        <v>3.689747133261724</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.648882738157934</v>
+        <v>12.23188683789329</v>
       </c>
       <c r="K9">
-        <v>13.96326673963606</v>
+        <v>9.125083186820365</v>
       </c>
       <c r="L9">
-        <v>6.149029165498505</v>
+        <v>8.625516118092667</v>
       </c>
       <c r="M9">
-        <v>10.39208571041903</v>
+        <v>15.35782725736526</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.33078203921738</v>
+        <v>29.24534775895011</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.66879888441672</v>
+        <v>16.75190691289655</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.917820745687206</v>
+        <v>9.512383394823834</v>
       </c>
       <c r="E10">
-        <v>9.99292544493226</v>
+        <v>16.42345383669598</v>
       </c>
       <c r="F10">
-        <v>26.66453870256365</v>
+        <v>38.75647066983558</v>
       </c>
       <c r="G10">
-        <v>2.104702519366995</v>
+        <v>3.686771009921443</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.543297393369854</v>
+        <v>12.19876257234016</v>
       </c>
       <c r="K10">
-        <v>14.97102794978495</v>
+        <v>9.52967053049119</v>
       </c>
       <c r="L10">
-        <v>6.579629180116929</v>
+        <v>8.677022549509257</v>
       </c>
       <c r="M10">
-        <v>10.89750622020712</v>
+        <v>15.41393716152676</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.41193032442126</v>
+        <v>29.1401758529348</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.07491586365341</v>
+        <v>16.82914265268558</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.959013582522122</v>
+        <v>9.508965697045079</v>
       </c>
       <c r="E11">
-        <v>9.929362192252574</v>
+        <v>16.39841386412985</v>
       </c>
       <c r="F11">
-        <v>26.81887426299532</v>
+        <v>38.71306120670353</v>
       </c>
       <c r="G11">
-        <v>2.10093735437585</v>
+        <v>3.685482331637001</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.496316082939249</v>
+        <v>12.18439535951574</v>
       </c>
       <c r="K11">
-        <v>15.40882854884323</v>
+        <v>9.708953889305095</v>
       </c>
       <c r="L11">
-        <v>6.767016378378717</v>
+        <v>8.701237319337835</v>
       </c>
       <c r="M11">
-        <v>11.12376329946574</v>
+        <v>15.4412731619528</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.46674601451495</v>
+        <v>29.09790047351137</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.22682777034489</v>
+        <v>16.85869197284265</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.974876987421811</v>
+        <v>9.507819392345731</v>
       </c>
       <c r="E12">
-        <v>9.905687372933302</v>
+        <v>16.38913777803132</v>
       </c>
       <c r="F12">
-        <v>26.88081463459578</v>
+        <v>38.69775014618479</v>
       </c>
       <c r="G12">
-        <v>2.099523064556902</v>
+        <v>3.685003663627922</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.478669190430823</v>
+        <v>12.17905518002362</v>
       </c>
       <c r="K12">
-        <v>15.57163262478984</v>
+        <v>9.776097885275631</v>
       </c>
       <c r="L12">
-        <v>6.836745871788022</v>
+        <v>8.710515131969297</v>
       </c>
       <c r="M12">
-        <v>11.20885292513425</v>
+        <v>15.45187991423144</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.49020256261968</v>
+        <v>29.08269356620663</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.19419540616893</v>
+        <v>16.85231489057909</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.971448800211244</v>
+        <v>9.508059701728847</v>
       </c>
       <c r="E13">
-        <v>9.910768565786952</v>
+        <v>16.3911263987131</v>
       </c>
       <c r="F13">
-        <v>26.86731730255511</v>
+        <v>38.70099750792316</v>
       </c>
       <c r="G13">
-        <v>2.099827158245031</v>
+        <v>3.685106339272923</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.482463480632227</v>
+        <v>12.18020082637742</v>
       </c>
       <c r="K13">
-        <v>15.5367025800578</v>
+        <v>9.761671351817879</v>
       </c>
       <c r="L13">
-        <v>6.821783167448745</v>
+        <v>8.70851225060048</v>
       </c>
       <c r="M13">
-        <v>11.19055445791818</v>
+        <v>15.44958429634312</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.48502875051189</v>
+        <v>29.08593296468725</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.08745176194067</v>
+        <v>16.83156775769327</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.960313389145965</v>
+        <v>9.508868429323565</v>
       </c>
       <c r="E14">
-        <v>9.927406520807832</v>
+        <v>16.39764659049312</v>
       </c>
       <c r="F14">
-        <v>26.82389938894888</v>
+        <v>38.71177895989222</v>
       </c>
       <c r="G14">
-        <v>2.100820773934414</v>
+        <v>3.685442764675423</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.494861420132823</v>
+        <v>12.18395401072913</v>
       </c>
       <c r="K14">
-        <v>15.42228233865871</v>
+        <v>9.714493163017348</v>
       </c>
       <c r="L14">
-        <v>6.772777748466847</v>
+        <v>8.70199846857639</v>
       </c>
       <c r="M14">
-        <v>11.13077580832018</v>
+        <v>15.44214070215591</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.46862099215774</v>
+        <v>29.09663331506049</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.0218217121689</v>
+        <v>16.81889825772289</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.953526994498063</v>
+        <v>9.509383040782955</v>
       </c>
       <c r="E15">
-        <v>9.937649263658344</v>
+        <v>16.40166720248493</v>
       </c>
       <c r="F15">
-        <v>26.79776350076937</v>
+        <v>38.71852973507993</v>
       </c>
       <c r="G15">
-        <v>2.101430866480434</v>
+        <v>3.685650048185186</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.502474041177981</v>
+        <v>12.18626600244852</v>
       </c>
       <c r="K15">
-        <v>15.35180810240276</v>
+        <v>9.685496190455861</v>
       </c>
       <c r="L15">
-        <v>6.742600162935187</v>
+        <v>8.698022542821343</v>
       </c>
       <c r="M15">
-        <v>11.09408123439148</v>
+        <v>15.43761436061624</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.45892596074312</v>
+        <v>29.10329204868976</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.64199988625805</v>
+        <v>16.74690268664947</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.915165882183348</v>
+        <v>9.512627480810961</v>
       </c>
       <c r="E16">
-        <v>9.997134672650029</v>
+        <v>16.42511912620258</v>
       </c>
       <c r="F16">
-        <v>26.65493548369869</v>
+        <v>38.75946524373745</v>
       </c>
       <c r="G16">
-        <v>2.104950232177888</v>
+        <v>3.686856535660567</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.546388264192279</v>
+        <v>12.19971557390613</v>
       </c>
       <c r="K16">
-        <v>14.94199997810953</v>
+        <v>9.517852661436319</v>
       </c>
       <c r="L16">
-        <v>6.56721122305049</v>
+        <v>8.675455450595521</v>
       </c>
       <c r="M16">
-        <v>10.88264058265608</v>
+        <v>15.41218669321685</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.40871888863034</v>
+        <v>29.14305079386405</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.40573510209364</v>
+        <v>16.70329438442411</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.892106991388315</v>
+        <v>9.514881947957427</v>
       </c>
       <c r="E17">
-        <v>10.03432937133102</v>
+        <v>16.4398738463056</v>
       </c>
       <c r="F17">
-        <v>26.57341791100316</v>
+        <v>38.78658412748793</v>
       </c>
       <c r="G17">
-        <v>2.107130537851716</v>
+        <v>3.687613336989894</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.573592222346148</v>
+        <v>12.20814571343898</v>
       </c>
       <c r="K17">
-        <v>14.68529751528019</v>
+        <v>9.413742651028615</v>
       </c>
       <c r="L17">
-        <v>6.457432583679275</v>
+        <v>8.661808922316082</v>
       </c>
       <c r="M17">
-        <v>10.75194377809731</v>
+        <v>15.39704789254476</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.38259232170646</v>
+        <v>29.16886845310908</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.26867319600549</v>
+        <v>16.6784236024267</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.879019404652111</v>
+        <v>9.516275915095976</v>
       </c>
       <c r="E18">
-        <v>10.05598046929903</v>
+        <v>16.44849574944501</v>
       </c>
       <c r="F18">
-        <v>26.52873550878908</v>
+        <v>38.80291904661419</v>
       </c>
       <c r="G18">
-        <v>2.108392652637109</v>
+        <v>3.68805476639493</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.589338494301273</v>
+        <v>12.21306053232659</v>
       </c>
       <c r="K18">
-        <v>14.53570695062237</v>
+        <v>9.353416074871213</v>
       </c>
       <c r="L18">
-        <v>6.393491425488436</v>
+        <v>8.654033897666451</v>
       </c>
       <c r="M18">
-        <v>10.67642903987673</v>
+        <v>15.38851127458855</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.36924248239943</v>
+        <v>29.18424209447988</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.22206854435247</v>
+        <v>16.67003970652082</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.874618363199828</v>
+        <v>9.51676461093658</v>
       </c>
       <c r="E19">
-        <v>10.06335538325236</v>
+        <v>16.45143825199445</v>
       </c>
       <c r="F19">
-        <v>26.5139817168881</v>
+        <v>38.80857627969402</v>
       </c>
       <c r="G19">
-        <v>2.108821389420929</v>
+        <v>3.688205282289561</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.594687171790388</v>
+        <v>12.21473595950283</v>
       </c>
       <c r="K19">
-        <v>14.48472519639153</v>
+        <v>9.332916028841289</v>
       </c>
       <c r="L19">
-        <v>6.371705083982023</v>
+        <v>8.651414271342466</v>
       </c>
       <c r="M19">
-        <v>10.65080445134526</v>
+        <v>15.38565041759844</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.36500675131244</v>
+        <v>29.18953730522004</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.43100751178015</v>
+        <v>16.70791480710457</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.894543529850995</v>
+        <v>9.514631894744777</v>
       </c>
       <c r="E20">
-        <v>10.0303432536463</v>
+        <v>16.43828917545747</v>
       </c>
       <c r="F20">
-        <v>26.58186657854051</v>
+        <v>38.78362100374338</v>
       </c>
       <c r="G20">
-        <v>2.106897611602782</v>
+        <v>3.687532139341163</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.570686090130486</v>
+        <v>12.20724148061559</v>
       </c>
       <c r="K20">
-        <v>14.71282506483239</v>
+        <v>9.424871884933628</v>
       </c>
       <c r="L20">
-        <v>6.469201516269157</v>
+        <v>8.663253982428778</v>
       </c>
       <c r="M20">
-        <v>10.7658924877964</v>
+        <v>15.39864180193416</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.38519902148684</v>
+        <v>29.16606587733889</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.11885645124567</v>
+        <v>16.83765366026358</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.963576972789882</v>
+        <v>9.508626877463414</v>
       </c>
       <c r="E21">
-        <v>9.922508811397455</v>
+        <v>16.39572586704002</v>
       </c>
       <c r="F21">
-        <v>26.83655645588547</v>
+        <v>38.70858158600856</v>
       </c>
       <c r="G21">
-        <v>2.100528619086988</v>
+        <v>3.685343695622445</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.49121599730353</v>
+        <v>12.18284888905475</v>
       </c>
       <c r="K21">
-        <v>15.45597131917407</v>
+        <v>9.728371267433133</v>
       </c>
       <c r="L21">
-        <v>6.787205253796218</v>
+        <v>8.703908824610536</v>
       </c>
       <c r="M21">
-        <v>11.14835069067328</v>
+        <v>15.44432018314329</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.47336610406816</v>
+        <v>29.09346859139009</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.55744502913756</v>
+        <v>16.92419537419773</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.010235028024109</v>
+        <v>9.505564037216885</v>
       </c>
       <c r="E22">
-        <v>9.854337275784189</v>
+        <v>16.36910871552625</v>
       </c>
       <c r="F22">
-        <v>27.0234451845033</v>
+        <v>38.66610936567189</v>
       </c>
       <c r="G22">
-        <v>2.096432743968993</v>
+        <v>3.68396776216036</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.440112966133151</v>
+        <v>12.16749175723879</v>
       </c>
       <c r="K22">
-        <v>15.92428193683133</v>
+        <v>9.922348739497044</v>
       </c>
       <c r="L22">
-        <v>6.987869034075992</v>
+        <v>8.731107611997972</v>
       </c>
       <c r="M22">
-        <v>11.39485268845234</v>
+        <v>15.47565856261873</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.54677807791697</v>
+        <v>29.05069641167972</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.3243883320904</v>
+        <v>16.87785289252994</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.985192761716538</v>
+        <v>9.507120091717052</v>
       </c>
       <c r="E23">
-        <v>9.890510281485422</v>
+        <v>16.38320519588746</v>
       </c>
       <c r="F23">
-        <v>26.92179137202697</v>
+        <v>38.68817603028725</v>
       </c>
       <c r="G23">
-        <v>2.098612951808618</v>
+        <v>3.68469716651187</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.467313622948677</v>
+        <v>12.17563478479139</v>
       </c>
       <c r="K23">
-        <v>15.67592808543873</v>
+        <v>9.819238612915839</v>
       </c>
       <c r="L23">
-        <v>6.881428697308185</v>
+        <v>8.716535139657424</v>
       </c>
       <c r="M23">
-        <v>11.26362477081786</v>
+        <v>15.45879860576674</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.50611081145711</v>
+        <v>29.07309665531321</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.41958568034921</v>
+        <v>16.70582528889273</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.893441443331712</v>
+        <v>9.51474463899695</v>
       </c>
       <c r="E24">
-        <v>10.03214454475022</v>
+        <v>16.43900517144905</v>
       </c>
       <c r="F24">
-        <v>26.57804014501466</v>
+        <v>38.78495831484289</v>
       </c>
       <c r="G24">
-        <v>2.107002890629928</v>
+        <v>3.687568829064093</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.571999620705087</v>
+        <v>12.20765007174303</v>
       </c>
       <c r="K24">
-        <v>14.70038611576508</v>
+        <v>9.419841824804962</v>
       </c>
       <c r="L24">
-        <v>6.463883360055108</v>
+        <v>8.662600450664209</v>
       </c>
       <c r="M24">
-        <v>10.7595874406045</v>
+        <v>15.39792067528907</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.38401533821098</v>
+        <v>29.16733126874161</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.39943834169547</v>
+        <v>16.52842774684365</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.801183529030174</v>
+        <v>9.526689521572283</v>
       </c>
       <c r="E25">
-        <v>10.19477051215793</v>
+        <v>16.50437349423211</v>
       </c>
       <c r="F25">
-        <v>26.29099769718387</v>
+        <v>38.91751705812141</v>
       </c>
       <c r="G25">
-        <v>2.11636363416558</v>
+        <v>3.690901218597007</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.688741865139782</v>
+        <v>12.24471000235444</v>
       </c>
       <c r="K25">
-        <v>13.57400602437628</v>
+        <v>8.972305861602676</v>
       </c>
       <c r="L25">
-        <v>5.98300725660091</v>
+        <v>8.607273110186313</v>
       </c>
       <c r="M25">
-        <v>10.20317415248434</v>
+        <v>15.33880364555764</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.31593815342147</v>
+        <v>29.28900649017866</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_194/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_194/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.40548401124649</v>
+        <v>12.61432660742277</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.538705566555747</v>
+        <v>5.739099334433861</v>
       </c>
       <c r="E2">
-        <v>16.55699451043912</v>
+        <v>10.32297596696137</v>
       </c>
       <c r="F2">
-        <v>39.03928311656505</v>
+        <v>26.1469336976416</v>
       </c>
       <c r="G2">
-        <v>3.693558962500307</v>
+        <v>2.123550029214333</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.27419186508692</v>
+        <v>7.778247364740554</v>
       </c>
       <c r="K2">
-        <v>8.630920874445264</v>
+        <v>12.68189806552735</v>
       </c>
       <c r="L2">
-        <v>8.569136173283496</v>
+        <v>5.603237424194227</v>
       </c>
       <c r="M2">
-        <v>15.30107565736081</v>
+        <v>9.78518938963629</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.39577894818369</v>
+        <v>19.31586375213357</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.32726379764847</v>
+        <v>12.06377929685294</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.548868416054141</v>
+        <v>5.700697305691606</v>
       </c>
       <c r="E3">
-        <v>16.5954759316503</v>
+        <v>10.41514725051987</v>
       </c>
       <c r="F3">
-        <v>39.13684199616634</v>
+        <v>26.08872767690037</v>
       </c>
       <c r="G3">
-        <v>3.695488555372158</v>
+        <v>2.128616200051477</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.29555224733683</v>
+        <v>7.841242805329353</v>
       </c>
       <c r="K3">
-        <v>8.393629060912421</v>
+        <v>12.03907863976042</v>
       </c>
       <c r="L3">
-        <v>8.544984415231752</v>
+        <v>5.33028406206949</v>
       </c>
       <c r="M3">
-        <v>15.27920299330132</v>
+        <v>9.498334369426111</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.47883508144989</v>
+        <v>19.34467845856691</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.28185121235945</v>
+        <v>11.71778102327003</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.55610785182664</v>
+        <v>5.678935324663805</v>
       </c>
       <c r="E4">
-        <v>16.62050056544015</v>
+        <v>10.47435113966262</v>
       </c>
       <c r="F4">
-        <v>39.20414676674118</v>
+        <v>26.07154904472509</v>
       </c>
       <c r="G4">
-        <v>3.696737030991849</v>
+        <v>2.131827307987824</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.30935206768452</v>
+        <v>7.88111322361495</v>
       </c>
       <c r="K4">
-        <v>8.245556643442365</v>
+        <v>11.62599571247848</v>
       </c>
       <c r="L4">
-        <v>8.53101383804292</v>
+        <v>5.178819014592881</v>
       </c>
       <c r="M4">
-        <v>15.26762074355413</v>
+        <v>9.321044412088082</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>29.53509894568174</v>
+        <v>19.37582776446159</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.26401737635405</v>
+        <v>11.57498398298144</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.559309793725266</v>
+        <v>5.670524567699241</v>
       </c>
       <c r="E5">
-        <v>16.63105041385833</v>
+        <v>10.49913408620705</v>
       </c>
       <c r="F5">
-        <v>39.23343346072058</v>
+        <v>26.06908039300125</v>
       </c>
       <c r="G5">
-        <v>3.697261862088848</v>
+        <v>2.133161655305662</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.31514822368516</v>
+        <v>7.89766554880613</v>
       </c>
       <c r="K5">
-        <v>8.184708494572369</v>
+        <v>11.45312885820736</v>
       </c>
       <c r="L5">
-        <v>8.525540121431874</v>
+        <v>5.123589234331773</v>
       </c>
       <c r="M5">
-        <v>15.26336917818731</v>
+        <v>9.248604920196652</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>29.55935005049983</v>
+        <v>19.39178999255814</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.26109708896054</v>
+        <v>11.55117034426525</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.55985669697516</v>
+        <v>5.669155598736377</v>
       </c>
       <c r="E6">
-        <v>16.63282349955329</v>
+        <v>10.50328896728921</v>
       </c>
       <c r="F6">
-        <v>39.23840873355869</v>
+        <v>26.0689401572784</v>
       </c>
       <c r="G6">
-        <v>3.697349981775309</v>
+        <v>2.133384795805689</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.31612111146977</v>
+        <v>7.900432611749355</v>
       </c>
       <c r="K6">
-        <v>8.174576781383124</v>
+        <v>11.42415381517944</v>
       </c>
       <c r="L6">
-        <v>8.524644565130254</v>
+        <v>5.114379439933138</v>
       </c>
       <c r="M6">
-        <v>15.26269159597868</v>
+        <v>9.236567794215654</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>29.56345680121444</v>
+        <v>19.39463457250069</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.28160795877099</v>
+        <v>11.71586221437657</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.556150014092589</v>
+        <v>5.678820041895843</v>
       </c>
       <c r="E7">
-        <v>16.62064141758126</v>
+        <v>10.47468271065899</v>
       </c>
       <c r="F7">
-        <v>39.20453421148775</v>
+        <v>26.07149758401084</v>
       </c>
       <c r="G7">
-        <v>3.696744043926145</v>
+        <v>2.131845198329305</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.30942953707947</v>
+        <v>7.881335212985872</v>
       </c>
       <c r="K7">
-        <v>8.24473795627735</v>
+        <v>11.62368258361121</v>
       </c>
       <c r="L7">
-        <v>8.530939124737635</v>
+        <v>5.178076828507852</v>
       </c>
       <c r="M7">
-        <v>15.26756150465092</v>
+        <v>9.320068111215802</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>29.53542064910711</v>
+        <v>19.3760299536965</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.3779799633948</v>
+        <v>12.42626284744365</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.542002598760787</v>
+        <v>5.725481674856729</v>
       </c>
       <c r="E8">
-        <v>16.56997349220892</v>
+        <v>10.35421509548341</v>
       </c>
       <c r="F8">
-        <v>39.07138364769477</v>
+        <v>26.12293188357167</v>
       </c>
       <c r="G8">
-        <v>3.694211095676202</v>
+        <v>2.125276323277166</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.28141516965749</v>
+        <v>7.799724280847681</v>
       </c>
       <c r="K8">
-        <v>8.549647499752428</v>
+        <v>12.46411942731203</v>
       </c>
       <c r="L8">
-        <v>8.560632556610873</v>
+        <v>5.510694887471221</v>
       </c>
       <c r="M8">
-        <v>15.29315276082404</v>
+        <v>9.686580108525161</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.42332275263377</v>
+        <v>19.3229365278188</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.58703544049263</v>
+        <v>13.74866438421632</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.522166898356312</v>
+        <v>5.831357299196966</v>
       </c>
       <c r="E9">
-        <v>16.48165893117539</v>
+        <v>10.13867485396099</v>
       </c>
       <c r="F9">
-        <v>38.86910652957289</v>
+        <v>26.37690950095578</v>
       </c>
       <c r="G9">
-        <v>3.689747133261724</v>
+        <v>2.113166484541907</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.23188683789329</v>
+        <v>7.648882738158035</v>
       </c>
       <c r="K9">
-        <v>9.125083186820365</v>
+        <v>13.96326673963604</v>
       </c>
       <c r="L9">
-        <v>8.625516118092667</v>
+        <v>6.149029165498392</v>
       </c>
       <c r="M9">
-        <v>15.35782725736526</v>
+        <v>10.39208571041909</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>29.24534775895011</v>
+        <v>19.3307820392174</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.75190691289655</v>
+        <v>14.66879888441671</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.512383394823834</v>
+        <v>5.91782074568717</v>
       </c>
       <c r="E10">
-        <v>16.42345383669598</v>
+        <v>9.992925444932263</v>
       </c>
       <c r="F10">
-        <v>38.75647066983558</v>
+        <v>26.66453870256356</v>
       </c>
       <c r="G10">
-        <v>3.686771009921443</v>
+        <v>2.104702519366994</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.19876257234016</v>
+        <v>7.543297393369887</v>
       </c>
       <c r="K10">
-        <v>9.52967053049119</v>
+        <v>14.97102794978498</v>
       </c>
       <c r="L10">
-        <v>8.677022549509257</v>
+        <v>6.579629180116982</v>
       </c>
       <c r="M10">
-        <v>15.41393716152676</v>
+        <v>10.8975062202071</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>29.1401758529348</v>
+        <v>19.41193032442119</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.82914265268558</v>
+        <v>15.07491586365341</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.508965697045079</v>
+        <v>5.959013582522179</v>
       </c>
       <c r="E11">
-        <v>16.39841386412985</v>
+        <v>9.929362192252638</v>
       </c>
       <c r="F11">
-        <v>38.71306120670353</v>
+        <v>26.81887426299527</v>
       </c>
       <c r="G11">
-        <v>3.685482331637001</v>
+        <v>2.100937354375716</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.18439535951574</v>
+        <v>7.496316082939285</v>
       </c>
       <c r="K11">
-        <v>9.708953889305095</v>
+        <v>15.40882854884327</v>
       </c>
       <c r="L11">
-        <v>8.701237319337835</v>
+        <v>6.767016378378758</v>
       </c>
       <c r="M11">
-        <v>15.4412731619528</v>
+        <v>11.12376329946572</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>29.09790047351137</v>
+        <v>19.4667460145149</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.85869197284265</v>
+        <v>15.22682777034493</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.507819392345731</v>
+        <v>5.974876987421903</v>
       </c>
       <c r="E12">
-        <v>16.38913777803132</v>
+        <v>9.905687372933428</v>
       </c>
       <c r="F12">
-        <v>38.69775014618479</v>
+        <v>26.88081463459569</v>
       </c>
       <c r="G12">
-        <v>3.685003663627922</v>
+        <v>2.099523064556903</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.17905518002362</v>
+        <v>7.478669190430855</v>
       </c>
       <c r="K12">
-        <v>9.776097885275631</v>
+        <v>15.57163262478988</v>
       </c>
       <c r="L12">
-        <v>8.710515131969297</v>
+        <v>6.836745871788002</v>
       </c>
       <c r="M12">
-        <v>15.45187991423144</v>
+        <v>11.20885292513426</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>29.08269356620663</v>
+        <v>19.49020256261957</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.85231489057909</v>
+        <v>15.19419540616892</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.508059701728847</v>
+        <v>5.971448800211137</v>
       </c>
       <c r="E13">
-        <v>16.3911263987131</v>
+        <v>9.910768565787015</v>
       </c>
       <c r="F13">
-        <v>38.70099750792316</v>
+        <v>26.86731730255513</v>
       </c>
       <c r="G13">
-        <v>3.685106339272923</v>
+        <v>2.099827158245165</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.18020082637742</v>
+        <v>7.482463480632329</v>
       </c>
       <c r="K13">
-        <v>9.761671351817879</v>
+        <v>15.53670258005778</v>
       </c>
       <c r="L13">
-        <v>8.70851225060048</v>
+        <v>6.821783167448698</v>
       </c>
       <c r="M13">
-        <v>15.44958429634312</v>
+        <v>11.1905544579182</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>29.08593296468725</v>
+        <v>19.48502875051193</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.83156775769327</v>
+        <v>15.08745176194064</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.508868429323565</v>
+        <v>5.96031338914581</v>
       </c>
       <c r="E14">
-        <v>16.39764659049312</v>
+        <v>9.92740652080783</v>
       </c>
       <c r="F14">
-        <v>38.71177895989222</v>
+        <v>26.82389938894866</v>
       </c>
       <c r="G14">
-        <v>3.685442764675423</v>
+        <v>2.100820773934146</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.18395401072913</v>
+        <v>7.494861420132824</v>
       </c>
       <c r="K14">
-        <v>9.714493163017348</v>
+        <v>15.42228233865877</v>
       </c>
       <c r="L14">
-        <v>8.70199846857639</v>
+        <v>6.772777748466896</v>
       </c>
       <c r="M14">
-        <v>15.44214070215591</v>
+        <v>11.13077580832016</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>29.09663331506049</v>
+        <v>19.4686209921576</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.81889825772289</v>
+        <v>15.02182171216893</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.509383040782955</v>
+        <v>5.953526994497954</v>
       </c>
       <c r="E15">
-        <v>16.40166720248493</v>
+        <v>9.937649263658349</v>
       </c>
       <c r="F15">
-        <v>38.71852973507993</v>
+        <v>26.79776350076921</v>
       </c>
       <c r="G15">
-        <v>3.685650048185186</v>
+        <v>2.1014308664803</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.18626600244852</v>
+        <v>7.502474041178014</v>
       </c>
       <c r="K15">
-        <v>9.685496190455861</v>
+        <v>15.35180810240274</v>
       </c>
       <c r="L15">
-        <v>8.698022542821343</v>
+        <v>6.742600162935189</v>
       </c>
       <c r="M15">
-        <v>15.43761436061624</v>
+        <v>11.0940812343915</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>29.10329204868976</v>
+        <v>19.45892596074301</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.74690268664947</v>
+        <v>14.64199988625804</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.512627480810961</v>
+        <v>5.915165882183401</v>
       </c>
       <c r="E16">
-        <v>16.42511912620258</v>
+        <v>9.997134672649972</v>
       </c>
       <c r="F16">
-        <v>38.75946524373745</v>
+        <v>26.65493548369869</v>
       </c>
       <c r="G16">
-        <v>3.686856535660567</v>
+        <v>2.104950232177754</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.19971557390613</v>
+        <v>7.546388264192179</v>
       </c>
       <c r="K16">
-        <v>9.517852661436319</v>
+        <v>14.94199997810954</v>
       </c>
       <c r="L16">
-        <v>8.675455450595521</v>
+        <v>6.567211223050595</v>
       </c>
       <c r="M16">
-        <v>15.41218669321685</v>
+        <v>10.88264058265604</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>29.14305079386405</v>
+        <v>19.40871888863028</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.70329438442411</v>
+        <v>14.40573510209366</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.514881947957427</v>
+        <v>5.892106991388514</v>
       </c>
       <c r="E17">
-        <v>16.4398738463056</v>
+        <v>10.03432937133109</v>
       </c>
       <c r="F17">
-        <v>38.78658412748793</v>
+        <v>26.57341791100326</v>
       </c>
       <c r="G17">
-        <v>3.687613336989894</v>
+        <v>2.107130537851715</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.20814571343898</v>
+        <v>7.57359222234608</v>
       </c>
       <c r="K17">
-        <v>9.413742651028615</v>
+        <v>14.68529751528019</v>
       </c>
       <c r="L17">
-        <v>8.661808922316082</v>
+        <v>6.457432583679237</v>
       </c>
       <c r="M17">
-        <v>15.39704789254476</v>
+        <v>10.75194377809735</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>29.16886845310908</v>
+        <v>19.38259232170646</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.6784236024267</v>
+        <v>14.26867319600546</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.516275915095976</v>
+        <v>5.879019404652122</v>
       </c>
       <c r="E18">
-        <v>16.44849574944501</v>
+        <v>10.05598046929909</v>
       </c>
       <c r="F18">
-        <v>38.80291904661419</v>
+        <v>26.528735508789</v>
       </c>
       <c r="G18">
-        <v>3.68805476639493</v>
+        <v>2.108392652637108</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.21306053232659</v>
+        <v>7.589338494301306</v>
       </c>
       <c r="K18">
-        <v>9.353416074871213</v>
+        <v>14.53570695062238</v>
       </c>
       <c r="L18">
-        <v>8.654033897666451</v>
+        <v>6.393491425488443</v>
       </c>
       <c r="M18">
-        <v>15.38851127458855</v>
+        <v>10.67642903987673</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>29.18424209447988</v>
+        <v>19.3692424823994</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.67003970652082</v>
+        <v>14.22206854435248</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.51676461093658</v>
+        <v>5.874618363199938</v>
       </c>
       <c r="E19">
-        <v>16.45143825199445</v>
+        <v>10.06335538325262</v>
       </c>
       <c r="F19">
-        <v>38.80857627969402</v>
+        <v>26.51398171688789</v>
       </c>
       <c r="G19">
-        <v>3.688205282289561</v>
+        <v>2.108821389420795</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.21473595950283</v>
+        <v>7.594687171790484</v>
       </c>
       <c r="K19">
-        <v>9.332916028841289</v>
+        <v>14.48472519639155</v>
       </c>
       <c r="L19">
-        <v>8.651414271342466</v>
+        <v>6.371705083982006</v>
       </c>
       <c r="M19">
-        <v>15.38565041759844</v>
+        <v>10.65080445134528</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>29.18953730522004</v>
+        <v>19.36500675131224</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.70791480710457</v>
+        <v>14.43100751178023</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.514631894744777</v>
+        <v>5.894543529851115</v>
       </c>
       <c r="E20">
-        <v>16.43828917545747</v>
+        <v>10.03034325364644</v>
       </c>
       <c r="F20">
-        <v>38.78362100374338</v>
+        <v>26.5818665785406</v>
       </c>
       <c r="G20">
-        <v>3.687532139341163</v>
+        <v>2.106897611602916</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.20724148061559</v>
+        <v>7.570686090130488</v>
       </c>
       <c r="K20">
-        <v>9.424871884933628</v>
+        <v>14.7128250648324</v>
       </c>
       <c r="L20">
-        <v>8.663253982428778</v>
+        <v>6.469201516269196</v>
       </c>
       <c r="M20">
-        <v>15.39864180193416</v>
+        <v>10.76589248779643</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>29.16606587733889</v>
+        <v>19.38519902148688</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.83765366026358</v>
+        <v>15.11885645124571</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.508626877463414</v>
+        <v>5.96357697279011</v>
       </c>
       <c r="E21">
-        <v>16.39572586704002</v>
+        <v>9.922508811397645</v>
       </c>
       <c r="F21">
-        <v>38.70858158600856</v>
+        <v>26.83655645588566</v>
       </c>
       <c r="G21">
-        <v>3.685343695622445</v>
+        <v>2.100528619087121</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.18284888905475</v>
+        <v>7.491215997303462</v>
       </c>
       <c r="K21">
-        <v>9.728371267433133</v>
+        <v>15.45597131917406</v>
       </c>
       <c r="L21">
-        <v>8.703908824610536</v>
+        <v>6.787205253796214</v>
       </c>
       <c r="M21">
-        <v>15.44432018314329</v>
+        <v>11.14835069067332</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>29.09346859139009</v>
+        <v>19.47336610406821</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.92419537419773</v>
+        <v>15.55744502913758</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.505564037216885</v>
+        <v>6.010235028024066</v>
       </c>
       <c r="E22">
-        <v>16.36910871552625</v>
+        <v>9.854337275784125</v>
       </c>
       <c r="F22">
-        <v>38.66610936567189</v>
+        <v>27.02344518450317</v>
       </c>
       <c r="G22">
-        <v>3.68396776216036</v>
+        <v>2.096432743968994</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.16749175723879</v>
+        <v>7.440112966133082</v>
       </c>
       <c r="K22">
-        <v>9.922348739497044</v>
+        <v>15.92428193683138</v>
       </c>
       <c r="L22">
-        <v>8.731107611997972</v>
+        <v>6.987869034076083</v>
       </c>
       <c r="M22">
-        <v>15.47565856261873</v>
+        <v>11.39485268845232</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>29.05069641167972</v>
+        <v>19.54677807791685</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.87785289252994</v>
+        <v>15.32438833209036</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.507120091717052</v>
+        <v>5.985192761716578</v>
       </c>
       <c r="E23">
-        <v>16.38320519588746</v>
+        <v>9.89051028148549</v>
       </c>
       <c r="F23">
-        <v>38.68817603028725</v>
+        <v>26.92179137202686</v>
       </c>
       <c r="G23">
-        <v>3.68469716651187</v>
+        <v>2.098612951808751</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.17563478479139</v>
+        <v>7.467313622948743</v>
       </c>
       <c r="K23">
-        <v>9.819238612915839</v>
+        <v>15.67592808543883</v>
       </c>
       <c r="L23">
-        <v>8.716535139657424</v>
+        <v>6.881428697308212</v>
       </c>
       <c r="M23">
-        <v>15.45879860576674</v>
+        <v>11.26362477081783</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>29.07309665531321</v>
+        <v>19.50611081145696</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.70582528889273</v>
+        <v>14.41958568034917</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.51474463899695</v>
+        <v>5.893441443331717</v>
       </c>
       <c r="E24">
-        <v>16.43900517144905</v>
+        <v>10.03214454475016</v>
       </c>
       <c r="F24">
-        <v>38.78495831484289</v>
+        <v>26.57804014501465</v>
       </c>
       <c r="G24">
-        <v>3.687568829064093</v>
+        <v>2.107002890629795</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.20765007174303</v>
+        <v>7.571999620705054</v>
       </c>
       <c r="K24">
-        <v>9.419841824804962</v>
+        <v>14.70038611576514</v>
       </c>
       <c r="L24">
-        <v>8.662600450664209</v>
+        <v>6.463883360055159</v>
       </c>
       <c r="M24">
-        <v>15.39792067528907</v>
+        <v>10.75958744060447</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>29.16733126874161</v>
+        <v>19.38401533821097</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.52842774684365</v>
+        <v>13.39943834169545</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.526689521572283</v>
+        <v>5.801183529030294</v>
       </c>
       <c r="E25">
-        <v>16.50437349423211</v>
+        <v>10.19477051215807</v>
       </c>
       <c r="F25">
-        <v>38.91751705812141</v>
+        <v>26.29099769718372</v>
       </c>
       <c r="G25">
-        <v>3.690901218597007</v>
+        <v>2.116363634165714</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.24471000235444</v>
+        <v>7.688741865139817</v>
       </c>
       <c r="K25">
-        <v>8.972305861602676</v>
+        <v>13.57400602437633</v>
       </c>
       <c r="L25">
-        <v>8.607273110186313</v>
+        <v>5.983007256600875</v>
       </c>
       <c r="M25">
-        <v>15.33880364555764</v>
+        <v>10.20317415248434</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.28900649017866</v>
+        <v>19.31593815342129</v>
       </c>
     </row>
   </sheetData>
